--- a/汽柴煤油2.0/eta/纯苯-Brent价差拟合残差-亚洲PX负荷_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/纯苯-Brent价差拟合残差-亚洲PX负荷_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-946.8</v>
+        <v>-796.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1037.5</v>
+        <v>-1182.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-644.1</v>
+        <v>-278.4</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-1008.1</v>
       </c>
       <c r="C4" t="n">
-        <v>-577</v>
+        <v>-686.6</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-929.1</v>
       </c>
       <c r="C5" t="n">
-        <v>-780.7</v>
+        <v>-909.1</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         <v>-601.4</v>
       </c>
       <c r="C7" t="n">
-        <v>-603.7</v>
+        <v>-604</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>-1065.7</v>
       </c>
       <c r="C9" t="n">
-        <v>-1060.1</v>
+        <v>-1059.8</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-647</v>
       </c>
       <c r="C10" t="n">
-        <v>-646</v>
+        <v>-647.8</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-196.7</v>
       </c>
       <c r="C11" t="n">
-        <v>-199.5</v>
+        <v>-199.3</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-435.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-433.8</v>
+        <v>-434.8</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>-107.4</v>
       </c>
       <c r="C13" t="n">
-        <v>-109.5</v>
+        <v>-108.7</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>-357</v>
       </c>
       <c r="C14" t="n">
-        <v>-356.7</v>
+        <v>-355.8</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>-324.7</v>
       </c>
       <c r="C15" t="n">
-        <v>-320.8</v>
+        <v>-320.2</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>721.5</v>
       </c>
       <c r="C16" t="n">
-        <v>720.3</v>
+        <v>718.9</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>985.4</v>
       </c>
       <c r="C17" t="n">
-        <v>980.7</v>
+        <v>979.3</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>1086.3</v>
       </c>
       <c r="C18" t="n">
-        <v>1093.3</v>
+        <v>1092.4</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>1735.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1686.5</v>
+        <v>1686.3</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>634.7</v>
       </c>
       <c r="C20" t="n">
-        <v>637.7</v>
+        <v>636.7</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>293.9</v>
       </c>
       <c r="C21" t="n">
-        <v>291.9</v>
+        <v>292.9</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>393.4</v>
       </c>
       <c r="C22" t="n">
-        <v>396.5</v>
+        <v>396.3</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +744,7 @@
         <v>-153.8</v>
       </c>
       <c r="C24" t="n">
-        <v>-153</v>
+        <v>-152.6</v>
       </c>
     </row>
     <row r="25">
